--- a/week_p.xlsx
+++ b/week_p.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="日程计划表" sheetId="1" r:id="rId1"/>
+    <sheet name="tech_trend" sheetId="2" r:id="rId2"/>
+    <sheet name="tech_record" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -82,10 +83,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>agular</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>深圳</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -103,6 +100,86 @@
   </si>
   <si>
     <t>广州</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>angular</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>h2 easy db</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目横向分离为eureka client</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>java，js人脸识别插件的可行性研究</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用idea 对cloud 模块 进行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mycat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>java设计模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信小程序开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> security oauth2.0配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多线程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信小程序难点记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app.global 可以为为全局变量赋值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. wx.getuserinfo 弹窗需要重构</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试准备： Spring源码，ioc di开始。Springboot的作用机制，自制demo。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aop 的底层原理： 默认是jdk代理基于接口。 Cglib来自开源asm包，基于类，自动在类跟接口之间切换</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>观察者模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单例模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工厂模式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -177,7 +254,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -194,6 +271,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -207,6 +293,452 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10991850" y="447675"/>
+          <a:ext cx="8277225" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>现在的重点是熟悉了 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>cloud</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>实际项目的运行，然后进行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>java</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>基础的复习（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>se</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>源码，框架源码，前瞻概念如</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>cloud</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>es</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>的熟悉），确保下一份工作起薪再</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>15k</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>以上。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>时不我待，时不待我。现在白天外面再施工，刚好白天可以去图书馆自习，或者去福田图书馆跟高中生们一起自习，多幸福的事情，不忘初心，方得始终。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>3. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>现在最迫切的是下一份工作，两个星期，将基础牢固后，准备一下简历，就可以减少自习的时间然后可以去发散的学习其他东西。 看</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>oracle</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>的意思，以后</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>java</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>可能会发展的不太好，必须学习一下</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>Android kotlin </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>跟</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>python </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>爬虫了，为大数据做好准备，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>hadoop,spark</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>与</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>elastic search,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>这个应该不怎么需要学习。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>你肯定不想进一个普通得像</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>9h</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>一样得垃圾公司。 所以必须准备游戏额问题来提问。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>	1.  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>用的是不是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>java8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>？ 不是，滚。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>	2.  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>有几个人用的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>idea</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>开发，没有，滚。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>	3.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>有没有用到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>springboot</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>，没有，滚。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676400" y="6505575"/>
+          <a:ext cx="3476625" cy="2028825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1. webservice</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的效率没有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>http</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>接口高。 他是通过提供</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>wsdi</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>格式的文件，让用户可以下载客户端代码，通过本地代码的方式调用相关接口获取数据。 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>为什么</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>webservice</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的效率没有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>http</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>接口的高呢，因为通过本地的接口进行调用增加了流程，我直接发送</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>http</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>请求跟先调用代码，代码再发送</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>http</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>请求，肯定是直接发送代码效率高。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> 但是通过</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>http</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>访问相关接口，要先查文档，确定相关参数无误，可能实际花费的时间并不比</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>webservice</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>少。</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -496,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -509,7 +1041,7 @@
     <col min="5" max="16384" width="18.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -523,7 +1055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>43249</v>
       </c>
@@ -535,7 +1067,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>43250</v>
       </c>
@@ -544,17 +1076,8 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="F3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="3">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>43251</v>
       </c>
@@ -565,15 +1088,8 @@
         <v>8</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>43252</v>
       </c>
@@ -586,15 +1102,8 @@
       <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="3">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>43253</v>
       </c>
@@ -604,7 +1113,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>43254</v>
       </c>
@@ -612,42 +1121,25 @@
         <v>10</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="F7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="3">
-        <v>2908</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F8" s="5"/>
-      <c r="G8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="3">
-        <v>2472</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>43255</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>43256</v>
       </c>
@@ -655,103 +1147,67 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>43257</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="F11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>43258</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>43259</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="3">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>43260</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>43261</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="F15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="3">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F16" s="5"/>
-      <c r="G16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="3">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>43262</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="3">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>43263</v>
       </c>
@@ -759,54 +1215,31 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>43264</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="F19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="3">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>43265</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="3">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>43266</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="3">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>43267</v>
       </c>
@@ -814,7 +1247,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>43268</v>
       </c>
@@ -822,7 +1255,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="25" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>43269</v>
       </c>
@@ -830,7 +1263,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>43270</v>
       </c>
@@ -838,7 +1271,7 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>43271</v>
       </c>
@@ -846,7 +1279,7 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>43272</v>
       </c>
@@ -854,7 +1287,7 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>43273</v>
       </c>
@@ -862,7 +1295,7 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>43274</v>
       </c>
@@ -870,7 +1303,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>43275</v>
       </c>
@@ -879,40 +1312,275 @@
       <c r="D31" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="F19:F21"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="7"/>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="7"/>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="7"/>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="7"/>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="7"/>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="7"/>
+      <c r="C12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="3">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="7"/>
+      <c r="C15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="3">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="7"/>
+      <c r="C16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="3">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="7"/>
+      <c r="C19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="7"/>
+      <c r="C20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="3">
+        <v>380</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B18:B20"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="15.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E2"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/week_p.xlsx
+++ b/week_p.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A98710CB-73DB-4030-8664-8DF47F0E4545}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日程计划表" sheetId="1" r:id="rId1"/>
@@ -12,7 +13,6 @@
     <sheet name="tech_record" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -186,7 +186,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -291,304 +291,14 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1152525</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10991850" y="447675"/>
-          <a:ext cx="8277225" cy="4762500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>1. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>现在的重点是熟悉了 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>cloud</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>实际项目的运行，然后进行</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>java</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>web</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>基础的复习（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>se</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>源码，框架源码，前瞻概念如</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>cloud</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>es</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>的熟悉），确保下一份工作起薪再</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>15k</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>以上。</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>2. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>时不我待，时不待我。现在白天外面再施工，刚好白天可以去图书馆自习，或者去福田图书馆跟高中生们一起自习，多幸福的事情，不忘初心，方得始终。</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>3. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>现在最迫切的是下一份工作，两个星期，将基础牢固后，准备一下简历，就可以减少自习的时间然后可以去发散的学习其他东西。 看</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>oracle</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>的意思，以后</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>java</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>可能会发展的不太好，必须学习一下</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>Android kotlin </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>跟</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>python </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>爬虫了，为大数据做好准备，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>hadoop,spark</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>与</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>elastic search,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>这个应该不怎么需要学习。</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>1. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>你肯定不想进一个普通得像</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>9h</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>一样得垃圾公司。 所以必须准备游戏额问题来提问。</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>	1.  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>用的是不是</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>java8</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>？ 不是，滚。</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>	2.  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>有几个人用的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>idea</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>开发，没有，滚。</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>	3.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>有没有用到</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>springboot</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>，没有，滚。</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -605,7 +315,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -784,7 +500,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -817,9 +533,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -852,6 +585,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1027,21 +777,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="18.59765625" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="1"/>
-    <col min="2" max="4" width="30.625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="18.625" style="1"/>
+    <col min="1" max="1" width="18.59765625" style="1"/>
+    <col min="2" max="4" width="30.59765625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="18.59765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1055,7 +805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>43249</v>
       </c>
@@ -1067,7 +817,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43250</v>
       </c>
@@ -1077,7 +827,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43251</v>
       </c>
@@ -1089,7 +839,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43252</v>
       </c>
@@ -1103,7 +853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43253</v>
       </c>
@@ -1113,7 +863,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43254</v>
       </c>
@@ -1125,7 +875,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43255</v>
       </c>
@@ -1139,7 +889,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43256</v>
       </c>
@@ -1147,7 +897,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43257</v>
       </c>
@@ -1155,7 +905,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>43258</v>
       </c>
@@ -1163,7 +913,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>43259</v>
       </c>
@@ -1171,7 +921,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>43260</v>
       </c>
@@ -1183,7 +933,7 @@
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>43261</v>
       </c>
@@ -1197,7 +947,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>43262</v>
       </c>
@@ -1207,7 +957,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>43263</v>
       </c>
@@ -1215,7 +965,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>43264</v>
       </c>
@@ -1223,7 +973,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>43265</v>
       </c>
@@ -1231,7 +981,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>43266</v>
       </c>
@@ -1239,7 +989,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>43267</v>
       </c>
@@ -1247,7 +997,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>43268</v>
       </c>
@@ -1255,7 +1005,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="25" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>43269</v>
       </c>
@@ -1263,7 +1013,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>43270</v>
       </c>
@@ -1271,7 +1021,7 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>43271</v>
       </c>
@@ -1279,7 +1029,7 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>43272</v>
       </c>
@@ -1287,7 +1037,7 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>43273</v>
       </c>
@@ -1295,7 +1045,7 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>43274</v>
       </c>
@@ -1303,7 +1053,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>43275</v>
       </c>
@@ -1315,21 +1065,20 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="18.59765625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>16</v>
       </c>
@@ -1340,7 +1089,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7"/>
       <c r="C3" s="3" t="s">
         <v>15</v>
@@ -1349,7 +1098,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
       <c r="C4" s="3" t="s">
         <v>21</v>
@@ -1358,12 +1107,12 @@
         <v>473</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>17</v>
       </c>
@@ -1374,7 +1123,7 @@
         <v>2908</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7"/>
       <c r="C7" s="3" t="s">
         <v>15</v>
@@ -1383,7 +1132,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7"/>
       <c r="C8" s="3" t="s">
         <v>21</v>
@@ -1392,12 +1141,12 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>18</v>
       </c>
@@ -1408,7 +1157,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="7"/>
       <c r="C11" s="3" t="s">
         <v>15</v>
@@ -1417,7 +1166,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7"/>
       <c r="C12" s="3" t="s">
         <v>21</v>
@@ -1426,12 +1175,12 @@
         <v>761</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
         <v>19</v>
       </c>
@@ -1442,7 +1191,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="7"/>
       <c r="C15" s="3" t="s">
         <v>15</v>
@@ -1451,7 +1200,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="7"/>
       <c r="C16" s="3" t="s">
         <v>21</v>
@@ -1460,12 +1209,12 @@
         <v>301</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
         <v>20</v>
       </c>
@@ -1476,7 +1225,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="7"/>
       <c r="C19" s="3" t="s">
         <v>15</v>
@@ -1485,7 +1234,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="7"/>
       <c r="C20" s="3" t="s">
         <v>21</v>
@@ -1509,19 +1258,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.59765625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="15.625" style="6"/>
+    <col min="1" max="16384" width="15.59765625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>32</v>
       </c>
@@ -1530,49 +1279,49 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>40</v>
       </c>

--- a/week_p.xlsx
+++ b/week_p.xlsx
@@ -3,21 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A98710CB-73DB-4030-8664-8DF47F0E4545}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{467F1CBE-29AB-452F-A25B-3170331268A9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="日程计划表" sheetId="1" r:id="rId1"/>
-    <sheet name="tech_trend" sheetId="2" r:id="rId2"/>
-    <sheet name="tech_record" sheetId="3" r:id="rId3"/>
+    <sheet name="6月未完成" sheetId="1" r:id="rId1"/>
+    <sheet name="7月Plan" sheetId="4" r:id="rId2"/>
+    <sheet name="tech_trend" sheetId="2" r:id="rId3"/>
+    <sheet name="tech_record" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -180,6 +181,22 @@
   </si>
   <si>
     <t>工厂模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ioc </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>io读写</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过zull网关进行权限控制</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -254,7 +271,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -274,6 +291,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -780,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.59765625" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1069,6 +1087,188 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2278EE10-8555-4F86-97F2-010D60D8C791}">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.9296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7">
+        <v>43283</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>43284</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>43285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>43286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>43287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>43288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>43289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>43290</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>43291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>43292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>43293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>43294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>43295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>43296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>43297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>43298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>43299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>43300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>43301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>43302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>43303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>43304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>43305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>43306</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>43307</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <v>43308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
+        <v>43309</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
+        <v>43310</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
+        <v>43311</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
+        <v>43312</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:D20"/>
   <sheetViews>
@@ -1079,7 +1279,7 @@
   <sheetFormatPr defaultColWidth="18.59765625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1090,7 +1290,7 @@
       </c>
     </row>
     <row r="3" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="7"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
@@ -1099,7 +1299,7 @@
       </c>
     </row>
     <row r="4" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="7"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1113,7 +1313,7 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1124,7 +1324,7 @@
       </c>
     </row>
     <row r="7" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="7"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
@@ -1133,7 +1333,7 @@
       </c>
     </row>
     <row r="8" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="7"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1147,7 +1347,7 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1158,7 +1358,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="7"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="3" t="s">
         <v>15</v>
       </c>
@@ -1167,7 +1367,7 @@
       </c>
     </row>
     <row r="12" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="7"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
@@ -1181,7 +1381,7 @@
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1192,7 +1392,7 @@
       </c>
     </row>
     <row r="15" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="7"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="3" t="s">
         <v>15</v>
       </c>
@@ -1201,7 +1401,7 @@
       </c>
     </row>
     <row r="16" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="7"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="3" t="s">
         <v>21</v>
       </c>
@@ -1215,7 +1415,7 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1226,7 +1426,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="7"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="3" t="s">
         <v>15</v>
       </c>
@@ -1235,7 +1435,7 @@
       </c>
     </row>
     <row r="20" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="7"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="3" t="s">
         <v>21</v>
       </c>
@@ -1257,7 +1457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
@@ -1271,20 +1471,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">

--- a/week_p.xlsx
+++ b/week_p.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{467F1CBE-29AB-452F-A25B-3170331268A9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6953DB8C-346A-49E5-A57F-4C3F0DC53ED1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6月未完成" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="95">
   <si>
     <t>date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -172,7 +172,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>观察者模式</t>
+    <t>设计模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ioc </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>io读写</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过zull网关进行权限控制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工厂模式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -180,23 +204,199 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>工厂模式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计模式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ioc </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>io读写</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过zull网关进行权限控制</t>
+    <t>原型模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>适配器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装饰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>享元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行为型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>责任链</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>观察者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nginx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>负载均衡配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>upstream domain1{server ip1:port1  weight=1; server ip2:port2 weight=3}      location /8081 {server: http://domain1}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高并发限流配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>权重</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每6次3次2次1次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按时间顺序逐次转发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>random</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fair</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照响应时间分配，响应快的优先分配</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mybatis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级缓存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认开启，在一个sqlsession开启到关闭的过程中，相同sql查询，不会再次发送sql</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级缓存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddl后容易造成查出错误结果，解决方法需要针对不同的sql去过滤，不建议使用。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redis持久化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rdb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>save 900 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>900秒内有一个key进行更新则进行rdb保存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aof</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认每秒进行aof保存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redis集群配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置redis-cluster</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>slot连接到集群，安装ruby</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自写一个HashMap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConcurentHashMap线程安全原理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TreeMap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是按照key排序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括segment(ReentrentLock)与hashEntry(键值对(值是一个链表))。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cloud服务注册原理 Eureka原理，ZooKeeper原理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HashMap原理，ConcurentHashMap原理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>斗地主项目Netty Nio概念</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息总线:bus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深clone与浅clone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ribbon</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -467,6 +667,464 @@
             <a:t>少。</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{278A284E-21B5-41A6-A5DA-C475B4A02560}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1133475" y="12372975"/>
+          <a:ext cx="3686175" cy="1147762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>HashMap</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>由</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>entry</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>数组与链表组成。当</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>put</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>key-value</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>时，首先计算出</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>key</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>hash</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>值，然后找到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>index</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，如果此处</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>=null</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>则赋值，否则插入链表，如果链表存在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>hash</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>值与</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>key</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>相同的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>node</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>则覆盖旧</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>value</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，链表超过</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>TREEIFY_THRESHOLD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>则转化为红黑树，如果加入数组后容量超过</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>loadFactor</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>则进行数组扩容</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>414338</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>176214</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文本框 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DEC2A6A-C52A-45A4-A3D4-4F844C427668}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1128712" y="14182726"/>
+          <a:ext cx="4857751" cy="1538288"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>1.Rule:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" baseline="0">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>RoundRobinRule,AvailabilityFilteringRule,WeightedResponseTimeRule</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2.Ping:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>a component running in background to ensure liveness of servers</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3.ServerList:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>this can be static or dynamic. If it is dynamic (as used by DynamicServerListLoadBalancer), a background thread will refresh and filter the list at certain interval</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+          </a:br>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -798,7 +1456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
@@ -1090,8 +1748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2278EE10-8555-4F86-97F2-010D60D8C791}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1104,13 +1762,13 @@
         <v>43283</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1118,7 +1776,7 @@
         <v>43284</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1190,73 +1848,85 @@
       <c r="A16" s="7">
         <v>43298</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>43299</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>43300</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>43301</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>43302</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>43303</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>43304</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>43305</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>43306</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>43307</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>43308</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>43309</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>43310</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>43311</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>43312</v>
       </c>
@@ -1459,10 +2129,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.59765625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1511,19 +2181,236 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="6">
+        <v>321</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1532,5 +2419,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/week_p.xlsx
+++ b/week_p.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{467F1CBE-29AB-452F-A25B-3170331268A9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="6月未完成" sheetId="1" r:id="rId1"/>
@@ -13,12 +12,12 @@
     <sheet name="tech_trend" sheetId="2" r:id="rId3"/>
     <sheet name="tech_record" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -197,13 +196,25 @@
   </si>
   <si>
     <t>通过zull网关进行权限控制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Hystrix </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mq深入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>java 8 stream</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -336,7 +347,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -518,7 +529,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -551,26 +562,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -603,23 +597,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -795,21 +772,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.59765625" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.59765625" style="1"/>
-    <col min="2" max="4" width="30.59765625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="18.59765625" style="1"/>
+    <col min="1" max="1" width="18.625" style="1"/>
+    <col min="2" max="4" width="30.625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="18.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -823,7 +800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>43249</v>
       </c>
@@ -835,7 +812,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>43250</v>
       </c>
@@ -845,7 +822,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>43251</v>
       </c>
@@ -857,7 +834,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>43252</v>
       </c>
@@ -871,7 +848,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>43253</v>
       </c>
@@ -881,7 +858,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>43254</v>
       </c>
@@ -893,7 +870,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>43255</v>
       </c>
@@ -907,7 +884,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>43256</v>
       </c>
@@ -915,7 +892,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>43257</v>
       </c>
@@ -923,7 +900,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>43258</v>
       </c>
@@ -931,7 +908,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>43259</v>
       </c>
@@ -939,7 +916,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>43260</v>
       </c>
@@ -951,7 +928,7 @@
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>43261</v>
       </c>
@@ -965,7 +942,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>43262</v>
       </c>
@@ -975,7 +952,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>43263</v>
       </c>
@@ -983,7 +960,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>43264</v>
       </c>
@@ -991,7 +968,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>43265</v>
       </c>
@@ -999,7 +976,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>43266</v>
       </c>
@@ -1007,7 +984,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>43267</v>
       </c>
@@ -1015,7 +992,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>43268</v>
       </c>
@@ -1023,7 +1000,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="25" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>43269</v>
       </c>
@@ -1031,7 +1008,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>43270</v>
       </c>
@@ -1039,7 +1016,7 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>43271</v>
       </c>
@@ -1047,7 +1024,7 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>43272</v>
       </c>
@@ -1055,7 +1032,7 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>43273</v>
       </c>
@@ -1063,7 +1040,7 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>43274</v>
       </c>
@@ -1071,7 +1048,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>43275</v>
       </c>
@@ -1087,19 +1064,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2278EE10-8555-4F86-97F2-010D60D8C791}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.9296875" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="7">
         <v>43283</v>
       </c>
@@ -1113,7 +1090,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>43284</v>
       </c>
@@ -1121,142 +1098,151 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>43285</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>43286</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>43287</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>43288</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>43289</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>43290</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>43291</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>43292</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>43293</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>43294</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>43295</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>43296</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>43297</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>43298</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>43299</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
         <v>43300</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
         <v>43301</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="7">
         <v>43302</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
         <v>43303</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="7">
         <v>43304</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="7">
         <v>43305</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="7">
         <v>43306</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="7">
         <v>43307</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="7">
         <v>43308</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="7">
         <v>43309</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="7">
         <v>43310</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="7">
         <v>43311</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="7">
         <v>43312</v>
       </c>
@@ -1269,16 +1255,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D20"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.59765625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="8" t="s">
         <v>16</v>
       </c>
@@ -1289,7 +1275,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="8"/>
       <c r="C3" s="3" t="s">
         <v>15</v>
@@ -1298,7 +1284,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="8"/>
       <c r="C4" s="3" t="s">
         <v>21</v>
@@ -1307,12 +1293,12 @@
         <v>473</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="8" t="s">
         <v>17</v>
       </c>
@@ -1323,7 +1309,7 @@
         <v>2908</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="8"/>
       <c r="C7" s="3" t="s">
         <v>15</v>
@@ -1332,7 +1318,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="8"/>
       <c r="C8" s="3" t="s">
         <v>21</v>
@@ -1341,12 +1327,12 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="8" t="s">
         <v>18</v>
       </c>
@@ -1357,7 +1343,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="8"/>
       <c r="C11" s="3" t="s">
         <v>15</v>
@@ -1366,7 +1352,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="8"/>
       <c r="C12" s="3" t="s">
         <v>21</v>
@@ -1375,12 +1361,12 @@
         <v>761</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="8" t="s">
         <v>19</v>
       </c>
@@ -1391,7 +1377,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="8"/>
       <c r="C15" s="3" t="s">
         <v>15</v>
@@ -1400,7 +1386,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="8"/>
       <c r="C16" s="3" t="s">
         <v>21</v>
@@ -1409,12 +1395,12 @@
         <v>301</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
@@ -1425,7 +1411,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="8"/>
       <c r="C19" s="3" t="s">
         <v>15</v>
@@ -1434,7 +1420,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="8"/>
       <c r="C20" s="3" t="s">
         <v>21</v>
@@ -1458,19 +1444,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.59765625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="15.59765625" style="6"/>
+    <col min="1" max="16384" width="15.625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>32</v>
       </c>
@@ -1479,49 +1465,49 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>40</v>
       </c>

--- a/week_p.xlsx
+++ b/week_p.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6953DB8C-346A-49E5-A57F-4C3F0DC53ED1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="6月未完成" sheetId="1" r:id="rId1"/>
     <sheet name="7月Plan" sheetId="4" r:id="rId2"/>
     <sheet name="tech_trend" sheetId="2" r:id="rId3"/>
-    <sheet name="tech_record" sheetId="3" r:id="rId4"/>
+    <sheet name="July_Inteerview_Record" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="97">
   <si>
     <t>date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -397,13 +396,21 @@
   </si>
   <si>
     <t>Ribbon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志持久化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>领体检结果</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -509,9 +516,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -536,7 +540,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -681,13 +685,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -695,7 +699,7 @@
         <xdr:cNvPr id="2" name="文本框 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{278A284E-21B5-41A6-A5DA-C475B4A02560}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{278A284E-21B5-41A6-A5DA-C475B4A02560}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -859,13 +863,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>14287</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>414338</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>176214</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -873,7 +877,7 @@
         <xdr:cNvPr id="3" name="文本框 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DEC2A6A-C52A-45A4-A3D4-4F844C427668}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DEC2A6A-C52A-45A4-A3D4-4F844C427668}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1079,6 +1083,10 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="zh-CN"/>
           </a:br>
@@ -1176,7 +1184,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1209,26 +1217,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1261,23 +1252,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1453,21 +1427,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.59765625" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.59765625" style="1"/>
-    <col min="2" max="4" width="30.59765625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="18.59765625" style="1"/>
+    <col min="1" max="1" width="18.625" style="1"/>
+    <col min="2" max="4" width="30.625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="18.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1481,7 +1455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>43249</v>
       </c>
@@ -1493,7 +1467,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>43250</v>
       </c>
@@ -1503,7 +1477,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>43251</v>
       </c>
@@ -1515,7 +1489,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>43252</v>
       </c>
@@ -1529,7 +1503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>43253</v>
       </c>
@@ -1539,7 +1513,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>43254</v>
       </c>
@@ -1551,7 +1525,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>43255</v>
       </c>
@@ -1565,7 +1539,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>43256</v>
       </c>
@@ -1573,7 +1547,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>43257</v>
       </c>
@@ -1581,7 +1555,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>43258</v>
       </c>
@@ -1589,7 +1563,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>43259</v>
       </c>
@@ -1597,7 +1571,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>43260</v>
       </c>
@@ -1609,7 +1583,7 @@
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>43261</v>
       </c>
@@ -1623,7 +1597,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>43262</v>
       </c>
@@ -1633,7 +1607,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>43263</v>
       </c>
@@ -1641,7 +1615,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>43264</v>
       </c>
@@ -1649,7 +1623,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>43265</v>
       </c>
@@ -1657,7 +1631,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>43266</v>
       </c>
@@ -1665,7 +1639,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>43267</v>
       </c>
@@ -1673,7 +1647,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>43268</v>
       </c>
@@ -1681,7 +1655,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="25" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>43269</v>
       </c>
@@ -1689,7 +1663,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>43270</v>
       </c>
@@ -1697,7 +1671,7 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>43271</v>
       </c>
@@ -1705,7 +1679,7 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>43272</v>
       </c>
@@ -1713,7 +1687,7 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>43273</v>
       </c>
@@ -1721,7 +1695,7 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>43274</v>
       </c>
@@ -1729,7 +1703,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>43275</v>
       </c>
@@ -1745,19 +1719,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2278EE10-8555-4F86-97F2-010D60D8C791}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.9296875" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="7">
         <v>43283</v>
       </c>
@@ -1771,7 +1745,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>43284</v>
       </c>
@@ -1779,72 +1753,72 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>43285</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>43286</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>43287</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>43288</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>43289</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>43290</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>43291</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>43292</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>43293</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>43294</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>43295</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>43296</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>43297</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>43298</v>
       </c>
@@ -1852,7 +1826,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>43299</v>
       </c>
@@ -1860,7 +1834,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
         <v>43300</v>
       </c>
@@ -1868,7 +1842,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
         <v>43301</v>
       </c>
@@ -1876,57 +1850,63 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="7">
         <v>43302</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
         <v>43303</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="7">
         <v>43304</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="7">
         <v>43305</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="7">
         <v>43306</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="7">
         <v>43307</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="7">
         <v>43308</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="7">
         <v>43309</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="7">
         <v>43310</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="7">
         <v>43311</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="7">
         <v>43312</v>
       </c>
@@ -1939,16 +1919,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D20"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.59765625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="8" t="s">
         <v>16</v>
       </c>
@@ -1959,7 +1939,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="8"/>
       <c r="C3" s="3" t="s">
         <v>15</v>
@@ -1968,7 +1948,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="8"/>
       <c r="C4" s="3" t="s">
         <v>21</v>
@@ -1977,12 +1957,12 @@
         <v>473</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="8" t="s">
         <v>17</v>
       </c>
@@ -1993,7 +1973,7 @@
         <v>2908</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="8"/>
       <c r="C7" s="3" t="s">
         <v>15</v>
@@ -2002,7 +1982,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="8"/>
       <c r="C8" s="3" t="s">
         <v>21</v>
@@ -2011,12 +1991,12 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="8" t="s">
         <v>18</v>
       </c>
@@ -2027,7 +2007,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="8"/>
       <c r="C11" s="3" t="s">
         <v>15</v>
@@ -2036,7 +2016,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="8"/>
       <c r="C12" s="3" t="s">
         <v>21</v>
@@ -2045,12 +2025,12 @@
         <v>761</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="8" t="s">
         <v>19</v>
       </c>
@@ -2061,7 +2041,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="8"/>
       <c r="C15" s="3" t="s">
         <v>15</v>
@@ -2070,7 +2050,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="8"/>
       <c r="C16" s="3" t="s">
         <v>21</v>
@@ -2079,12 +2059,12 @@
         <v>301</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
@@ -2095,7 +2075,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="8"/>
       <c r="C19" s="3" t="s">
         <v>15</v>
@@ -2104,7 +2084,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="8"/>
       <c r="C20" s="3" t="s">
         <v>21</v>
@@ -2128,19 +2108,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.59765625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="15.59765625" style="6"/>
+    <col min="1" max="16384" width="15.625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>32</v>
       </c>
@@ -2149,267 +2129,267 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="6" t="s">
+    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C14" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C28" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="6" t="s">
+    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D30" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E30" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="6" t="s">
+    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D31" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E31" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D32" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="6">
+        <v>321</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D33" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C37" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="D37" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E37" s="6">
-        <v>321</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C38" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="D38" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C41" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
+    <row r="55" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="6" t="s">
+    <row r="56" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="6" t="s">
+    <row r="57" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="6" t="s">
         <v>94</v>
       </c>
     </row>

--- a/week_p.xlsx
+++ b/week_p.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="6月未完成" sheetId="1" r:id="rId1"/>
     <sheet name="7月Plan" sheetId="4" r:id="rId2"/>
-    <sheet name="tech_trend" sheetId="2" r:id="rId3"/>
-    <sheet name="July_Inteerview_Record" sheetId="3" r:id="rId4"/>
+    <sheet name="Aug_plan" sheetId="5" r:id="rId3"/>
+    <sheet name="tech_trend" sheetId="2" r:id="rId4"/>
+    <sheet name="July_Inteerview_Record" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="99">
   <si>
     <t>date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -404,6 +405,13 @@
   </si>
   <si>
     <t>领体检结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2. Mongodb</t>
+  </si>
+  <si>
+    <t>1.Mq</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -411,7 +419,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,8 +442,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -445,6 +461,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -472,13 +493,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -499,6 +523,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -506,8 +539,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="2" builtinId="26"/>
     <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1430,8 +1464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1722,8 +1756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1920,6 +1954,200 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13" style="6" customWidth="1"/>
+    <col min="2" max="16" width="9" style="6"/>
+    <col min="17" max="17" width="12.625" style="6" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8">
+        <v>43314</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8">
+        <v>43315</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="9">
+        <v>43316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
+        <v>43317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8"/>
+    </row>
+    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8">
+        <v>43318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
+        <v>43319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
+        <v>43320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="8">
+        <v>43321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8">
+        <v>43322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="9">
+        <v>43323</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="9">
+        <v>43324</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="8"/>
+    </row>
+    <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="8">
+        <v>43325</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="8">
+        <v>43326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="8">
+        <v>43327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="8">
+        <v>43328</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="8">
+        <v>43329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="8">
+        <v>43330</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="9">
+        <v>43331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="8"/>
+    </row>
+    <row r="22" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="8">
+        <v>43332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="8">
+        <v>43333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="8">
+        <v>43334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="8">
+        <v>43335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="8">
+        <v>43336</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="9">
+        <v>43337</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="9">
+        <v>43338</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="8"/>
+    </row>
+    <row r="30" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="8">
+        <v>43339</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="8">
+        <v>43340</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="8">
+        <v>43341</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="8">
+        <v>43342</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="8">
+        <v>43343</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D20"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -1929,7 +2157,7 @@
   <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1940,7 +2168,7 @@
       </c>
     </row>
     <row r="3" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="8"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
@@ -1949,7 +2177,7 @@
       </c>
     </row>
     <row r="4" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="8"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1963,7 +2191,7 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1974,7 +2202,7 @@
       </c>
     </row>
     <row r="7" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="8"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
@@ -1983,7 +2211,7 @@
       </c>
     </row>
     <row r="8" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="8"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1997,7 +2225,7 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -2008,7 +2236,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="8"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="3" t="s">
         <v>15</v>
       </c>
@@ -2017,7 +2245,7 @@
       </c>
     </row>
     <row r="12" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="8"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
@@ -2031,7 +2259,7 @@
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -2042,7 +2270,7 @@
       </c>
     </row>
     <row r="15" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="8"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="3" t="s">
         <v>15</v>
       </c>
@@ -2051,7 +2279,7 @@
       </c>
     </row>
     <row r="16" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="8"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="3" t="s">
         <v>21</v>
       </c>
@@ -2065,7 +2293,7 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -2076,7 +2304,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="8"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="3" t="s">
         <v>15</v>
       </c>
@@ -2085,7 +2313,7 @@
       </c>
     </row>
     <row r="20" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="8"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="3" t="s">
         <v>21</v>
       </c>
@@ -2107,12 +2335,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2121,20 +2349,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">

--- a/week_p.xlsx
+++ b/week_p.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="6月未完成" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="101">
   <si>
     <t>date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -412,6 +412,14 @@
   </si>
   <si>
     <t>1.Mq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.公寓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.第一行代码 第二章</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1957,7 +1965,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1983,8 +1991,8 @@
       <c r="A2" s="8">
         <v>43315</v>
       </c>
-      <c r="B2" s="6">
-        <v>1</v>
+      <c r="B2" s="6" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2003,6 +2011,9 @@
     <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>43318</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2339,8 +2350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/week_p.xlsx
+++ b/week_p.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="102">
   <si>
     <t>date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -420,6 +420,10 @@
   </si>
   <si>
     <t>1.第一行代码 第二章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.mysql存储过程</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -712,6 +716,203 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
             <a:t>少。</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1609725" y="8715375"/>
+          <a:ext cx="4162425" cy="2952750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2018 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>年 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>7 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>月，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Go </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>语言一举超过 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Java</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>，进入了编</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>...</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>极客时间版权所有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: https://time.geekbang.org/column/intro/112?utm_source=wechat&amp;utm_medium=archtime&amp;utm_campaign=112-presell&amp;utm_content=menu</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -1962,10 +2163,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1976,7 +2177,7 @@
     <col min="18" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8">
         <v>43314</v>
       </c>
@@ -1987,7 +2188,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>43315</v>
       </c>
@@ -1995,71 +2196,74 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>43316</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>43317</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
     </row>
-    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>43318</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>43319</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>43320</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>43321</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>43322</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>43323</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>43324</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8"/>
     </row>
-    <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>43325</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>43326</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <v>43327</v>
       </c>
@@ -2161,8 +2365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/week_p.xlsx
+++ b/week_p.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7FE05B28-0409-4FB0-93D8-B67FD27DEF49}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6月未完成" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="103">
   <si>
     <t>date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -424,13 +425,17 @@
   </si>
   <si>
     <t>2.mysql存储过程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.jpa+mybatis demo    2.Android 省钱软件制作</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -562,6 +567,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -586,7 +594,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -737,7 +745,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -942,7 +956,7 @@
         <xdr:cNvPr id="2" name="文本框 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{278A284E-21B5-41A6-A5DA-C475B4A02560}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1120,7 +1134,7 @@
         <xdr:cNvPr id="3" name="文本框 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DEC2A6A-C52A-45A4-A3D4-4F844C427668}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1326,10 +1340,6 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t/>
-          </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="zh-CN"/>
           </a:br>
@@ -1427,7 +1437,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1460,9 +1470,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1495,6 +1522,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1670,21 +1714,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="18.59765625" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="1"/>
-    <col min="2" max="4" width="30.625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="18.625" style="1"/>
+    <col min="1" max="1" width="18.59765625" style="1"/>
+    <col min="2" max="4" width="30.59765625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="18.59765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1698,7 +1742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>43249</v>
       </c>
@@ -1710,7 +1754,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43250</v>
       </c>
@@ -1720,7 +1764,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43251</v>
       </c>
@@ -1732,7 +1776,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43252</v>
       </c>
@@ -1746,7 +1790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43253</v>
       </c>
@@ -1756,7 +1800,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43254</v>
       </c>
@@ -1768,7 +1812,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43255</v>
       </c>
@@ -1782,7 +1826,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43256</v>
       </c>
@@ -1790,7 +1834,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43257</v>
       </c>
@@ -1798,7 +1842,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>43258</v>
       </c>
@@ -1806,7 +1850,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>43259</v>
       </c>
@@ -1814,7 +1858,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>43260</v>
       </c>
@@ -1826,7 +1870,7 @@
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>43261</v>
       </c>
@@ -1840,7 +1884,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>43262</v>
       </c>
@@ -1850,7 +1894,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>43263</v>
       </c>
@@ -1858,7 +1902,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>43264</v>
       </c>
@@ -1866,7 +1910,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>43265</v>
       </c>
@@ -1874,7 +1918,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>43266</v>
       </c>
@@ -1882,7 +1926,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>43267</v>
       </c>
@@ -1890,7 +1934,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>43268</v>
       </c>
@@ -1898,7 +1942,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="25" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>43269</v>
       </c>
@@ -1906,7 +1950,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>43270</v>
       </c>
@@ -1914,7 +1958,7 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>43271</v>
       </c>
@@ -1922,7 +1966,7 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>43272</v>
       </c>
@@ -1930,7 +1974,7 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>43273</v>
       </c>
@@ -1938,7 +1982,7 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>43274</v>
       </c>
@@ -1946,7 +1990,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>43275</v>
       </c>
@@ -1962,19 +2006,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="1" max="1" width="10.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="7">
         <v>43283</v>
       </c>
@@ -1988,7 +2032,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>43284</v>
       </c>
@@ -1996,72 +2040,72 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>43285</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>43286</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>43287</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>43288</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>43289</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>43290</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>43291</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>43292</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>43293</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>43294</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>43295</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>43296</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>43297</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>43298</v>
       </c>
@@ -2069,7 +2113,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>43299</v>
       </c>
@@ -2077,7 +2121,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>43300</v>
       </c>
@@ -2085,7 +2129,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>43301</v>
       </c>
@@ -2093,37 +2137,37 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>43302</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>43303</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>43304</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>43305</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>43306</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>43307</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>43308</v>
       </c>
@@ -2131,17 +2175,17 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>43309</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>43310</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>43311</v>
       </c>
@@ -2149,7 +2193,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>43312</v>
       </c>
@@ -2162,22 +2206,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" style="6" customWidth="1"/>
     <col min="2" max="16" width="9" style="6"/>
-    <col min="17" max="17" width="12.625" style="6" customWidth="1"/>
+    <col min="17" max="17" width="12.59765625" style="6" customWidth="1"/>
     <col min="18" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8">
         <v>43314</v>
       </c>
@@ -2188,7 +2232,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>43315</v>
       </c>
@@ -2196,25 +2240,25 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>43316</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>43317</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
     </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>43318</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>43319</v>
       </c>
@@ -2225,131 +2269,134 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>43320</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>43321</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>43322</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>43323</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>43324</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
     </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>43325</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>43326</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>43327</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>43328</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>43329</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>43330</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>43331</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
     </row>
-    <row r="22" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>43332</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>43333</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>43334</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>43335</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>43336</v>
       </c>
     </row>
-    <row r="27" spans="1:1" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>43337</v>
       </c>
     </row>
-    <row r="28" spans="1:1" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>43338</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>43339</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>43340</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>43341</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>43342</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>43343</v>
       </c>
@@ -2362,16 +2409,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:D20"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="18.59765625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>16</v>
       </c>
@@ -2382,7 +2429,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
       <c r="C3" s="3" t="s">
         <v>15</v>
@@ -2391,7 +2438,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11"/>
       <c r="C4" s="3" t="s">
         <v>21</v>
@@ -2400,12 +2447,12 @@
         <v>473</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
         <v>17</v>
       </c>
@@ -2416,7 +2463,7 @@
         <v>2908</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="11"/>
       <c r="C7" s="3" t="s">
         <v>15</v>
@@ -2425,7 +2472,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="11"/>
       <c r="C8" s="3" t="s">
         <v>21</v>
@@ -2434,12 +2481,12 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
         <v>18</v>
       </c>
@@ -2450,7 +2497,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="11"/>
       <c r="C11" s="3" t="s">
         <v>15</v>
@@ -2459,7 +2506,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="11"/>
       <c r="C12" s="3" t="s">
         <v>21</v>
@@ -2468,12 +2515,12 @@
         <v>761</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
         <v>19</v>
       </c>
@@ -2484,7 +2531,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="11"/>
       <c r="C15" s="3" t="s">
         <v>15</v>
@@ -2493,7 +2540,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="11"/>
       <c r="C16" s="3" t="s">
         <v>21</v>
@@ -2502,12 +2549,12 @@
         <v>301</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
         <v>20</v>
       </c>
@@ -2518,7 +2565,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="11"/>
       <c r="C19" s="3" t="s">
         <v>15</v>
@@ -2527,7 +2574,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="11"/>
       <c r="C20" s="3" t="s">
         <v>21</v>
@@ -2551,19 +2598,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.59765625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="15.625" style="6"/>
+    <col min="1" max="16384" width="15.59765625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>32</v>
       </c>
@@ -2572,59 +2619,59 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="6" t="s">
         <v>46</v>
       </c>
@@ -2632,72 +2679,72 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D30" s="6" t="s">
         <v>61</v>
       </c>
@@ -2705,7 +2752,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D31" s="6" t="s">
         <v>62</v>
       </c>
@@ -2713,7 +2760,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D32" s="6" t="s">
         <v>63</v>
       </c>
@@ -2724,7 +2771,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D33" s="6" t="s">
         <v>67</v>
       </c>
@@ -2732,22 +2779,22 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="6" t="s">
         <v>71</v>
       </c>
@@ -2755,7 +2802,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="6" t="s">
         <v>73</v>
       </c>
@@ -2763,17 +2810,17 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="6" t="s">
         <v>77</v>
       </c>
@@ -2781,57 +2828,57 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>94</v>
       </c>

--- a/week_p.xlsx
+++ b/week_p.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7FE05B28-0409-4FB0-93D8-B67FD27DEF49}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EBF2AAB8-FBC5-49AC-9E2D-A349672CC763}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="104">
   <si>
     <t>date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -428,7 +428,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.jpa+mybatis demo    2.Android 省钱软件制作</t>
+    <t>1.jpa+mybatis demo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.Android 省钱软件制作</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2210,7 +2214,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2295,6 +2299,9 @@
     <row r="12" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>43324</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">

--- a/week_p.xlsx
+++ b/week_p.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="104">
   <si>
     <t>date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -424,6 +424,14 @@
   </si>
   <si>
     <t>2.mysql存储过程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoll</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -586,7 +594,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -942,7 +950,7 @@
         <xdr:cNvPr id="2" name="文本框 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{278A284E-21B5-41A6-A5DA-C475B4A02560}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{278A284E-21B5-41A6-A5DA-C475B4A02560}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1120,7 +1128,7 @@
         <xdr:cNvPr id="3" name="文本框 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DEC2A6A-C52A-45A4-A3D4-4F844C427668}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DEC2A6A-C52A-45A4-A3D4-4F844C427668}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2165,8 +2173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2261,6 +2269,12 @@
     <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>43326</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">

--- a/week_p.xlsx
+++ b/week_p.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EBF2AAB8-FBC5-49AC-9E2D-A349672CC763}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F8B15C44-6A82-4288-8780-0179C29D0908}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="105">
   <si>
     <t>date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -433,6 +433,10 @@
   </si>
   <si>
     <t>2.Android 省钱软件制作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>netty</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2214,7 +2218,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2322,78 +2326,81 @@
         <v>43327</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>43328</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>43329</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>43330</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>43331</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
     </row>
-    <row r="22" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>43332</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>43333</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>43334</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>43335</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>43336</v>
       </c>
     </row>
-    <row r="27" spans="1:1" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>43337</v>
       </c>
     </row>
-    <row r="28" spans="1:1" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>43338</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>43339</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>43340</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>43341</v>
       </c>

--- a/week_p.xlsx
+++ b/week_p.xlsx
@@ -3,23 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F8B15C44-6A82-4288-8780-0179C29D0908}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A4DF6829-7587-4862-950C-32E30373A3B0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6月未完成" sheetId="1" r:id="rId1"/>
     <sheet name="7月Plan" sheetId="4" r:id="rId2"/>
     <sheet name="Aug_plan" sheetId="5" r:id="rId3"/>
-    <sheet name="tech_trend" sheetId="2" r:id="rId4"/>
-    <sheet name="July_Inteerview_Record" sheetId="3" r:id="rId5"/>
+    <sheet name="study_plan" sheetId="6" r:id="rId4"/>
+    <sheet name="tech_trend" sheetId="2" r:id="rId5"/>
+    <sheet name="July_Inteerview_Record" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="107">
   <si>
     <t>date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -437,6 +438,14 @@
   </si>
   <si>
     <t>netty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一行代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -527,7 +536,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -556,6 +565,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2217,7 +2229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -2423,6 +2435,37 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2CDF37-6B37-40EC-A0EB-FCB379C53B81}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.59765625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="16.59765625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:D20"/>
   <sheetViews>
@@ -2433,7 +2476,7 @@
   <sheetFormatPr defaultColWidth="18.59765625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -2444,7 +2487,7 @@
       </c>
     </row>
     <row r="3" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="11"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
@@ -2453,7 +2496,7 @@
       </c>
     </row>
     <row r="4" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="11"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="3" t="s">
         <v>21</v>
       </c>
@@ -2467,7 +2510,7 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -2478,7 +2521,7 @@
       </c>
     </row>
     <row r="7" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="11"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
@@ -2487,7 +2530,7 @@
       </c>
     </row>
     <row r="8" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="11"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
@@ -2501,7 +2544,7 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -2512,7 +2555,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="11"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="3" t="s">
         <v>15</v>
       </c>
@@ -2521,7 +2564,7 @@
       </c>
     </row>
     <row r="12" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="11"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
@@ -2535,7 +2578,7 @@
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -2546,7 +2589,7 @@
       </c>
     </row>
     <row r="15" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="11"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="3" t="s">
         <v>15</v>
       </c>
@@ -2555,7 +2598,7 @@
       </c>
     </row>
     <row r="16" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="11"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="3" t="s">
         <v>21</v>
       </c>
@@ -2569,7 +2612,7 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -2580,7 +2623,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="11"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="3" t="s">
         <v>15</v>
       </c>
@@ -2589,7 +2632,7 @@
       </c>
     </row>
     <row r="20" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="11"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="3" t="s">
         <v>21</v>
       </c>
@@ -2611,7 +2654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F57"/>
   <sheetViews>
@@ -2625,20 +2668,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">

--- a/week_p.xlsx
+++ b/week_p.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A4DF6829-7587-4862-950C-32E30373A3B0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DF8076DA-4A5E-40B1-8D92-A0CBCDD5F757}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="108">
   <si>
     <t>date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -446,6 +446,10 @@
   </si>
   <si>
     <t>算法4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二三节点树</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2436,10 +2440,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2CDF37-6B37-40EC-A0EB-FCB379C53B81}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.59765625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2456,6 +2460,11 @@
       </c>
       <c r="E1" s="11" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="11" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/week_p.xlsx
+++ b/week_p.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DF8076DA-4A5E-40B1-8D92-A0CBCDD5F757}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2C547CF8-5B64-4E77-94C6-D84E4F15A1CE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6月未完成" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="study_plan" sheetId="6" r:id="rId4"/>
     <sheet name="tech_trend" sheetId="2" r:id="rId5"/>
     <sheet name="July_Inteerview_Record" sheetId="3" r:id="rId6"/>
+    <sheet name="experience" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
   <si>
     <t>date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -450,6 +451,10 @@
   </si>
   <si>
     <t>二三节点树</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring cloud config 要与 git checkout 得分支对应</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2442,8 +2447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2CDF37-6B37-40EC-A0EB-FCB379C53B81}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.59765625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2958,4 +2963,24 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620AF2A4-98C5-4FC6-AD30-071F55352926}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/week_p.xlsx
+++ b/week_p.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2C547CF8-5B64-4E77-94C6-D84E4F15A1CE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{70549CDB-F29A-4EB1-9D3D-1A92B8A4366B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6月未完成" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="110">
   <si>
     <t>date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -455,6 +455,10 @@
   </si>
   <si>
     <t>spring cloud config 要与 git checkout 得分支对应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b-b+b*</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2445,10 +2449,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2CDF37-6B37-40EC-A0EB-FCB379C53B81}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.59765625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2470,6 +2474,11 @@
     <row r="2" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E2" s="11" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="11" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2969,7 +2978,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620AF2A4-98C5-4FC6-AD30-071F55352926}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/week_p.xlsx
+++ b/week_p.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{70549CDB-F29A-4EB1-9D3D-1A92B8A4366B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6CCFBA62-33FA-4F03-B04B-53C9DDB6D701}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,12 @@
     <sheet name="July_Inteerview_Record" sheetId="3" r:id="rId6"/>
     <sheet name="experience" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="111">
   <si>
     <t>date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -459,6 +459,10 @@
   </si>
   <si>
     <t>b-b+b*</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JVM,String</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2449,10 +2453,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2CDF37-6B37-40EC-A0EB-FCB379C53B81}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.59765625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2479,6 +2483,11 @@
     <row r="3" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E3" s="11" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="11" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/week_p.xlsx
+++ b/week_p.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10AE5C2-4825-480F-B736-0DC04BE4E7B3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6月未完成" sheetId="1" r:id="rId1"/>
@@ -455,7 +456,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -591,6 +592,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -615,7 +619,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -766,7 +770,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -971,7 +981,7 @@
         <xdr:cNvPr id="2" name="文本框 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{278A284E-21B5-41A6-A5DA-C475B4A02560}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1149,7 +1159,7 @@
         <xdr:cNvPr id="3" name="文本框 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DEC2A6A-C52A-45A4-A3D4-4F844C427668}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1355,10 +1365,6 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t/>
-          </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="zh-CN"/>
           </a:br>
@@ -1456,7 +1462,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1489,9 +1495,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1524,6 +1547,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1699,7 +1739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1991,11 +2031,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2191,7 +2231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -2397,10 +2437,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -2463,10 +2503,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -2652,10 +2692,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>

--- a/week_p.xlsx
+++ b/week_p.xlsx
@@ -1,476 +1,302 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10AE5C2-4825-480F-B736-0DC04BE4E7B3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129D241E-AA83-4E40-AA47-1F85E26D2B05}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="6月未完成" sheetId="1" r:id="rId1"/>
-    <sheet name="7月Plan" sheetId="4" r:id="rId2"/>
-    <sheet name="Aug_plan" sheetId="5" r:id="rId3"/>
-    <sheet name="Long_Plan" sheetId="6" r:id="rId4"/>
-    <sheet name="tech_trend" sheetId="2" r:id="rId5"/>
-    <sheet name="July_Inteerview_Record" sheetId="3" r:id="rId6"/>
+    <sheet name="Long_Plan" sheetId="6" r:id="rId1"/>
+    <sheet name="tech_trend" sheetId="2" r:id="rId2"/>
+    <sheet name="July_Inteerview_Record" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="108">
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>first</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>second</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>third</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>vue项目的初始化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>vue项目结构的熟悉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>深圳书城分享会</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>spring cloud整体架构</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>spring cloud服务注册</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拆分hm项目</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一周总结</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>security 与 cloud的集成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分布式事务引入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用vue制作一个首页</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
   <si>
     <t>vue</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>react</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>深圳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>北京</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>上海</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>杭州</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>广州</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>angular</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>h2 easy db</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目横向分离为eureka client</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>java，js人脸识别插件的可行性研究</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用idea 对cloud 模块 进行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mycat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>java设计模式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Android开发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信小程序开发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> security oauth2.0配置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>多线程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>微信小程序难点记录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>app.global 可以为为全局变量赋值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. wx.getuserinfo 弹窗需要重构</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>面试准备： Spring源码，ioc di开始。Springboot的作用机制，自制demo。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Aop 的底层原理： 默认是jdk代理基于接口。 Cglib来自开源asm包，基于类，自动在类跟接口之间切换</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>设计模式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ioc </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>io读写</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过zull网关进行权限控制</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计模式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>创建型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>工厂模式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>单例模式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>原型模式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>结构性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>适配器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>桥接</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>装饰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>代理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>享元</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>行为型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>责任链</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>观察者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Nginx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>负载均衡配置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>upstream domain1{server ip1:port1  weight=1; server ip2:port2 weight=3}      location /8081 {server: http://domain1}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>高并发限流配置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>策略</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>随机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>轮询</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>权重</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>每6次3次2次1次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>按时间顺序逐次转发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>random</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>fair</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>按照响应时间分配，响应快的优先分配</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Mybatis</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>缓存</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1级缓存</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>默认开启，在一个sqlsession开启到关闭的过程中，相同sql查询，不会再次发送sql</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2级缓存</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ddl后容易造成查出错误结果，解决方法需要针对不同的sql去过滤，不建议使用。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Redis持久化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rdb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>save 900 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>900秒内有一个key进行更新则进行rdb保存</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>aof</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>默认每秒进行aof保存</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Redis集群配置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>配置redis-cluster</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>slot连接到集群，安装ruby</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>自写一个HashMap</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ConcurentHashMap线程安全原理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TreeMap</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是按照key排序</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>包括segment(ReentrentLock)与hashEntry(键值对(值是一个链表))。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cloud服务注册原理 Eureka原理，ZooKeeper原理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HashMap原理，ConcurentHashMap原理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>斗地主项目Netty Nio概念</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息总线:bus</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>深clone与浅clone</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Ribbon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日志持久化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>领体检结果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2. Mongodb</t>
-  </si>
-  <si>
-    <t>1.Mq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.公寓</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.第一行代码 第二章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.mysql存储过程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>epoll</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>计划</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. 熟悉java9为 升级java11准备</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2. juc包</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3. netty</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -480,31 +306,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -531,43 +339,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -581,10 +364,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="2" builtinId="26"/>
-    <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1739,770 +1520,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="18.625" style="1"/>
-    <col min="2" max="4" width="30.625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="18.625" style="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="16.59765625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
-        <v>43249</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
-        <v>43250</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
-        <v>43251</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
-        <v>43252</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
-        <v>43253</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
-        <v>43254</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
-        <v>43255</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
-        <v>43256</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2">
-        <v>43257</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2">
-        <v>43258</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2">
-        <v>43259</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2">
-        <v>43260</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="2">
-        <v>43261</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="2">
-        <v>43262</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="2">
-        <v>43263</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="2">
-        <v>43264</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="2">
-        <v>43265</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="2">
-        <v>43266</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="2">
-        <v>43267</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="2">
-        <v>43268</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="25" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="2">
-        <v>43269</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="2">
-        <v>43270</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="2">
-        <v>43271</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="2">
-        <v>43272</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="2">
-        <v>43273</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="2">
-        <v>43274</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="2">
-        <v>43275</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+    <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+    </row>
+    <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="7">
-        <v>43283</v>
-      </c>
-      <c r="B1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="7">
-        <v>43284</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="7">
-        <v>43285</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="7">
-        <v>43286</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
-        <v>43287</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="7">
-        <v>43288</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
-        <v>43289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="7">
-        <v>43290</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="7">
-        <v>43291</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="7">
-        <v>43292</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="7">
-        <v>43293</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="7">
-        <v>43294</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="7">
-        <v>43295</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="7">
-        <v>43296</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="7">
-        <v>43297</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="7">
-        <v>43298</v>
-      </c>
-      <c r="B16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="7">
-        <v>43299</v>
-      </c>
-      <c r="B17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="7">
-        <v>43300</v>
-      </c>
-      <c r="B18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="7">
-        <v>43301</v>
-      </c>
-      <c r="B19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="7">
-        <v>43302</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="7">
-        <v>43303</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="7">
-        <v>43304</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="7">
-        <v>43305</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="7">
-        <v>43306</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="7">
-        <v>43307</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="7">
-        <v>43308</v>
-      </c>
-      <c r="B26" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="7">
-        <v>43309</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="7">
-        <v>43310</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="7">
-        <v>43311</v>
-      </c>
-      <c r="B29" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="7">
-        <v>43312</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E34"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13" style="6" customWidth="1"/>
-    <col min="2" max="16" width="9" style="6"/>
-    <col min="17" max="17" width="12.625" style="6" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8">
-        <v>43314</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8">
-        <v>43315</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9">
-        <v>43316</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9">
-        <v>43317</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8">
-        <v>43318</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8">
-        <v>43319</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8">
-        <v>43320</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8">
-        <v>43321</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8">
-        <v>43322</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="9">
-        <v>43323</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="9">
-        <v>43324</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="8"/>
-    </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="8">
-        <v>43325</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="8">
-        <v>43326</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="8">
-        <v>43327</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="8">
-        <v>43328</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="8">
-        <v>43329</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="8">
-        <v>43330</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="9">
-        <v>43331</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="8"/>
-    </row>
-    <row r="22" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="8">
-        <v>43332</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="8">
-        <v>43333</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="8">
-        <v>43334</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="8">
-        <v>43335</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="8">
-        <v>43336</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="9">
-        <v>43337</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="9">
-        <v>43338</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="8"/>
-    </row>
-    <row r="30" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="8">
-        <v>43339</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="8">
-        <v>43340</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="8">
-        <v>43341</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="8">
-        <v>43342</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="8">
-        <v>43343</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-    </row>
-    <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-    </row>
-    <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
-    </row>
-    <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11"/>
-    </row>
-    <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11"/>
-    </row>
-    <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:D20"/>
   <sheetViews>
@@ -2510,170 +1593,170 @@
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="18.59765625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="3">
+    <row r="2" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
         <v>1059</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="13"/>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="3">
+    <row r="3" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="6"/>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
         <v>783</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="13"/>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3">
+    <row r="4" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="6"/>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2">
         <v>473</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="3">
+    <row r="6" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
         <v>2908</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="13"/>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="3">
+    <row r="7" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="6"/>
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
         <v>2472</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="13"/>
-      <c r="C8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="3">
+    <row r="8" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2">
         <v>1305</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="3">
+    <row r="10" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
         <v>1326</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="13"/>
-      <c r="C11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="3">
+    <row r="11" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="6"/>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
         <v>1223</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="13"/>
-      <c r="C12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="3">
+    <row r="12" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="6"/>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2">
         <v>761</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="3">
+    <row r="14" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
         <v>689</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="13"/>
-      <c r="C15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="3">
+    <row r="15" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="6"/>
+      <c r="C15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
         <v>644</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="13"/>
-      <c r="C16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="3">
+    <row r="16" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="6"/>
+      <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2">
         <v>301</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="3">
+    <row r="18" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
         <v>764</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="13"/>
-      <c r="C19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="3">
+    <row r="19" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="6"/>
+      <c r="C19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
         <v>526</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="13"/>
-      <c r="C20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="3">
+    <row r="20" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2">
         <v>380</v>
       </c>
     </row>
@@ -2685,303 +1768,303 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B18:B20"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.59765625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="15.625" style="6"/>
+    <col min="1" max="16384" width="15.59765625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-    </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+    </row>
+    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
+      <c r="E30" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
+      <c r="E31" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
+      <c r="E32" s="3">
+        <v>321</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
+    <row r="33" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="6" t="s">
+    <row r="37" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="6" t="s">
+      <c r="D37" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="6" t="s">
+    <row r="38" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="6" t="s">
+      <c r="D38" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="6" t="s">
+    </row>
+    <row r="39" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="6" t="s">
+    <row r="40" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="6" t="s">
+    <row r="41" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="6" t="s">
+      <c r="D41" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C21" s="6" t="s">
+    <row r="42" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="6" t="s">
+    <row r="43" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="6" t="s">
+    <row r="44" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="6" t="s">
+    <row r="45" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="6" t="s">
+    <row r="46" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="6" t="s">
+    <row r="47" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C28" s="6" t="s">
+    <row r="55" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C29" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D30" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D31" s="6" t="s">
+    <row r="56" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D32" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" s="6">
-        <v>321</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D33" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C37" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C38" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C41" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C43" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="6" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E2"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/week_p.xlsx
+++ b/week_p.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129D241E-AA83-4E40-AA47-1F85E26D2B05}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF51B434-4498-4198-B254-F3A9B09092B8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Long_Plan" sheetId="6" r:id="rId1"/>
     <sheet name="tech_trend" sheetId="2" r:id="rId2"/>
     <sheet name="July_Inteerview_Record" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
   <si>
     <t>vue</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -284,6 +285,10 @@
   </si>
   <si>
     <t>3. netty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>network</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1523,13 +1528,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.59765625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>63</v>
       </c>
@@ -1545,34 +1550,34 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
     </row>
-    <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
     </row>
-    <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
     </row>
   </sheetData>
@@ -1593,9 +1598,9 @@
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.59765625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
@@ -1606,7 +1611,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="6"/>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -1615,7 +1620,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="6"/>
       <c r="C4" s="2" t="s">
         <v>7</v>
@@ -1624,12 +1629,12 @@
         <v>473</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
@@ -1640,7 +1645,7 @@
         <v>2908</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="6"/>
       <c r="C7" s="2" t="s">
         <v>1</v>
@@ -1649,7 +1654,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="6"/>
       <c r="C8" s="2" t="s">
         <v>7</v>
@@ -1658,12 +1663,12 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="6" t="s">
         <v>4</v>
       </c>
@@ -1674,7 +1679,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="6"/>
       <c r="C11" s="2" t="s">
         <v>1</v>
@@ -1683,7 +1688,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="6"/>
       <c r="C12" s="2" t="s">
         <v>7</v>
@@ -1692,12 +1697,12 @@
         <v>761</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="6" t="s">
         <v>5</v>
       </c>
@@ -1708,7 +1713,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="6"/>
       <c r="C15" s="2" t="s">
         <v>1</v>
@@ -1717,7 +1722,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="6"/>
       <c r="C16" s="2" t="s">
         <v>7</v>
@@ -1726,12 +1731,12 @@
         <v>301</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="6" t="s">
         <v>6</v>
       </c>
@@ -1742,7 +1747,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="6"/>
       <c r="C19" s="2" t="s">
         <v>1</v>
@@ -1751,7 +1756,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="6"/>
       <c r="C20" s="2" t="s">
         <v>7</v>
@@ -1782,12 +1787,12 @@
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.59765625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="15.59765625" style="3"/>
+    <col min="1" max="16384" width="15.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
@@ -1796,59 +1801,59 @@
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="3" t="s">
         <v>18</v>
       </c>
@@ -1856,72 +1861,72 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D30" s="3" t="s">
         <v>33</v>
       </c>
@@ -1929,7 +1934,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D31" s="3" t="s">
         <v>34</v>
       </c>
@@ -1937,7 +1942,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D32" s="3" t="s">
         <v>35</v>
       </c>
@@ -1948,7 +1953,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D33" s="3" t="s">
         <v>39</v>
       </c>
@@ -1956,22 +1961,22 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="3" t="s">
         <v>43</v>
       </c>
@@ -1979,7 +1984,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="3" t="s">
         <v>45</v>
       </c>
@@ -1987,17 +1992,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="3" t="s">
         <v>49</v>
       </c>
@@ -2005,57 +2010,57 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
         <v>62</v>
       </c>
@@ -2069,4 +2074,26 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518DF6EF-5C57-4C89-B50A-B7C939DB3DFE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/week_p.xlsx
+++ b/week_p.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF51B434-4498-4198-B254-F3A9B09092B8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4369619C-E2A3-45E9-8811-A3802B7B348A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Long_Plan" sheetId="6" r:id="rId1"/>
     <sheet name="tech_trend" sheetId="2" r:id="rId2"/>
     <sheet name="July_Inteerview_Record" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
   <si>
     <t>vue</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -285,10 +284,6 @@
   </si>
   <si>
     <t>3. netty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>network</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -347,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -358,7 +353,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1526,59 +1520,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="16.59765625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-    </row>
-    <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1598,10 +1577,10 @@
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="18.59765625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1611,8 +1590,8 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="6"/>
+    <row r="3" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="5"/>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1620,8 +1599,8 @@
         <v>783</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="6"/>
+    <row r="4" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="5"/>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1629,13 +1608,13 @@
         <v>473</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1645,8 +1624,8 @@
         <v>2908</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="6"/>
+    <row r="7" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="5"/>
       <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1654,8 +1633,8 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="6"/>
+    <row r="8" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="5"/>
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1663,13 +1642,13 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="6" t="s">
+    <row r="10" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1679,8 +1658,8 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="6"/>
+    <row r="11" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="5"/>
       <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1688,8 +1667,8 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="6"/>
+    <row r="12" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="5"/>
       <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
@@ -1697,13 +1676,13 @@
         <v>761</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="6" t="s">
+    <row r="14" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1713,8 +1692,8 @@
         <v>689</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="6"/>
+    <row r="15" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="5"/>
       <c r="C15" s="2" t="s">
         <v>1</v>
       </c>
@@ -1722,8 +1701,8 @@
         <v>644</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="6"/>
+    <row r="16" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="5"/>
       <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
@@ -1731,13 +1710,13 @@
         <v>301</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="6" t="s">
+    <row r="18" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1747,8 +1726,8 @@
         <v>764</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="6"/>
+    <row r="19" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="5"/>
       <c r="C19" s="2" t="s">
         <v>1</v>
       </c>
@@ -1756,8 +1735,8 @@
         <v>526</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="6"/>
+    <row r="20" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="5"/>
       <c r="C20" s="2" t="s">
         <v>7</v>
       </c>
@@ -1783,77 +1762,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.59765625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="15.625" style="3"/>
+    <col min="1" max="16384" width="15.59765625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="3" t="s">
         <v>18</v>
       </c>
@@ -1861,72 +1840,72 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D30" s="3" t="s">
         <v>33</v>
       </c>
@@ -1934,7 +1913,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D31" s="3" t="s">
         <v>34</v>
       </c>
@@ -1942,7 +1921,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D32" s="3" t="s">
         <v>35</v>
       </c>
@@ -1953,7 +1932,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D33" s="3" t="s">
         <v>39</v>
       </c>
@@ -1961,22 +1940,22 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="3" t="s">
         <v>43</v>
       </c>
@@ -1984,7 +1963,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="3" t="s">
         <v>45</v>
       </c>
@@ -1992,17 +1971,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="3" t="s">
         <v>49</v>
       </c>
@@ -2010,57 +1989,57 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>62</v>
       </c>
@@ -2074,26 +2053,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518DF6EF-5C57-4C89-B50A-B7C939DB3DFE}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>